--- a/07_Tag 07/Soll-Ist-Zeitplan_0.7_Cvetkovic_David.xlsx
+++ b/07_Tag 07/Soll-Ist-Zeitplan_0.7_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\07_Tag 07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8226D9AD-2D48-4706-AAB2-CDB21544DBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3279A60A-4E71-4080-A23D-B9BD412B245B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,15 +729,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -746,7 +743,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -766,21 +781,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:AW70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S60" sqref="S60"/>
+      <selection activeCell="T56" sqref="T56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -1083,163 +1083,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="45" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="45" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="45" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="45" t="s">
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="45" t="s">
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="45" t="s">
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="45" t="s">
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="45" t="s">
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="45" t="s">
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="47"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="52"/>
     </row>
     <row r="2" spans="1:49" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="48">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="53">
         <v>45341</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="48">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="53">
         <v>45342</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="48">
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="53">
         <v>45343</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="48">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="53">
         <v>45344</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="48">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="53">
         <v>45345</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="48">
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="53">
         <v>45348</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="48">
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="53">
         <v>45349</v>
       </c>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="48">
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="53">
         <v>45350</v>
       </c>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="48">
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="53">
         <v>45351</v>
       </c>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="48">
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="53">
         <v>45352</v>
       </c>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="50"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="55"/>
     </row>
     <row r="3" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="38">
         <v>1</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="38">
         <v>1</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <f>D3-C3</f>
         <v>0</v>
       </c>
@@ -1285,11 +1285,11 @@
       <c r="AS3" s="13"/>
     </row>
     <row r="4" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="44"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="18"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1338,17 +1338,17 @@
       </c>
     </row>
     <row r="5" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="44"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="38">
         <v>2</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="38">
         <v>2</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="41">
         <f t="shared" ref="E5" si="0">D5-C5</f>
         <v>0</v>
       </c>
@@ -1398,11 +1398,11 @@
       </c>
     </row>
     <row r="6" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="44"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="43"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="12"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
@@ -1449,17 +1449,17 @@
       </c>
     </row>
     <row r="7" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="44"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="38">
         <v>1</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="38">
         <v>1</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <f t="shared" ref="E7" si="1">D7-C7</f>
         <v>0</v>
       </c>
@@ -1509,11 +1509,11 @@
       </c>
     </row>
     <row r="8" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="41"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="43"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="12"/>
       <c r="G8" s="3"/>
       <c r="H8" s="5"/>
@@ -1556,19 +1556,19 @@
       <c r="AS8" s="13"/>
     </row>
     <row r="9" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="38">
         <v>1</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="38">
         <v>1</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
         <f t="shared" ref="E9" si="2">D9-C9</f>
         <v>0</v>
       </c>
@@ -1614,11 +1614,11 @@
       <c r="AS9" s="13"/>
     </row>
     <row r="10" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="44"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="43"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="12"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1661,17 +1661,17 @@
       <c r="AS10" s="13"/>
     </row>
     <row r="11" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="44"/>
-      <c r="B11" s="38" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="38">
         <v>2</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="38">
         <v>2</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="41">
         <f t="shared" ref="E11" si="3">D11-C11</f>
         <v>0</v>
       </c>
@@ -1717,11 +1717,11 @@
       <c r="AS11" s="13"/>
     </row>
     <row r="12" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="44"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="43"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="12"/>
       <c r="G12" s="4"/>
       <c r="H12" s="3"/>
@@ -1764,17 +1764,17 @@
       <c r="AS12" s="13"/>
     </row>
     <row r="13" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="44"/>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="38">
         <v>2</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="38">
         <v>1</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <f t="shared" ref="E13" si="4">D13-C13</f>
         <v>-1</v>
       </c>
@@ -1820,11 +1820,11 @@
       <c r="AS13" s="13"/>
     </row>
     <row r="14" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="41"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="43"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="12"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1867,19 +1867,19 @@
       <c r="AS14" s="13"/>
     </row>
     <row r="15" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="38">
         <v>1</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="38">
         <v>1</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <f t="shared" ref="E15" si="5">D15-C15</f>
         <v>0</v>
       </c>
@@ -1925,11 +1925,11 @@
       <c r="AS15" s="13"/>
     </row>
     <row r="16" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="44"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="43"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="12"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1972,17 +1972,17 @@
       <c r="AS16" s="13"/>
     </row>
     <row r="17" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="44"/>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="38">
         <v>4</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="38">
         <v>3</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="41">
         <f t="shared" ref="E17" si="6">D17-C17</f>
         <v>-1</v>
       </c>
@@ -2028,11 +2028,11 @@
       <c r="AS17" s="13"/>
     </row>
     <row r="18" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="44"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="43"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="12"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2075,17 +2075,17 @@
       <c r="AS18" s="13"/>
     </row>
     <row r="19" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="44"/>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="38">
         <v>1</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="38">
         <v>1</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="41">
         <f t="shared" ref="E19" si="7">D19-C19</f>
         <v>0</v>
       </c>
@@ -2130,11 +2130,11 @@
       <c r="AS19" s="13"/>
     </row>
     <row r="20" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="44"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="43"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="12"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2177,17 +2177,17 @@
       <c r="AS20" s="13"/>
     </row>
     <row r="21" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="44"/>
-      <c r="B21" s="38" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="38">
         <v>1</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="38">
         <v>1</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="41">
         <f t="shared" ref="E21" si="8">D21-C21</f>
         <v>0</v>
       </c>
@@ -2233,11 +2233,11 @@
       <c r="AS21" s="13"/>
     </row>
     <row r="22" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="41"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="43"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="12"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -2280,19 +2280,19 @@
       <c r="AS22" s="13"/>
     </row>
     <row r="23" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="38">
         <v>4</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="38">
         <v>5</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="41">
         <f t="shared" ref="E23" si="9">D23-C23</f>
         <v>1</v>
       </c>
@@ -2338,11 +2338,11 @@
       <c r="AS23" s="13"/>
     </row>
     <row r="24" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="44"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="43"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="12"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2385,17 +2385,17 @@
       <c r="AS24" s="13"/>
     </row>
     <row r="25" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="44"/>
-      <c r="B25" s="38" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="38">
         <v>8</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="38">
         <v>10</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="41">
         <f t="shared" ref="E25" si="10">D25-C25</f>
         <v>2</v>
       </c>
@@ -2441,11 +2441,11 @@
       <c r="AS25" s="13"/>
     </row>
     <row r="26" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="44"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="43"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="12"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2488,15 +2488,15 @@
       <c r="AS26" s="13"/>
     </row>
     <row r="27" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="44"/>
-      <c r="B27" s="38" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="38">
         <v>2</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="42">
+      <c r="D27" s="38"/>
+      <c r="E27" s="41">
         <f t="shared" ref="E27" si="11">D27-C27</f>
         <v>-2</v>
       </c>
@@ -2541,11 +2541,11 @@
       <c r="AS27" s="13"/>
     </row>
     <row r="28" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="44"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="43"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="42"/>
       <c r="F28" s="12"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2588,15 +2588,15 @@
       <c r="AS28" s="13"/>
     </row>
     <row r="29" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="44"/>
-      <c r="B29" s="38" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="38">
         <v>4</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="42">
+      <c r="D29" s="38"/>
+      <c r="E29" s="41">
         <f t="shared" ref="E29" si="12">D29-C29</f>
         <v>-4</v>
       </c>
@@ -2642,11 +2642,11 @@
       <c r="AS29" s="21"/>
     </row>
     <row r="30" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="44"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="43"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="12"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -2689,15 +2689,15 @@
       <c r="AS30" s="13"/>
     </row>
     <row r="31" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="44"/>
-      <c r="B31" s="38" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="38">
         <v>12</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="42">
+      <c r="D31" s="38"/>
+      <c r="E31" s="41">
         <f t="shared" ref="E31" si="13">D31-C31</f>
         <v>-12</v>
       </c>
@@ -2743,11 +2743,11 @@
       <c r="AS31" s="13"/>
     </row>
     <row r="32" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="44"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="43"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="12"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2773,7 +2773,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="13"/>
       <c r="AD32" s="12"/>
-      <c r="AE32" s="4"/>
+      <c r="AE32" s="3"/>
       <c r="AF32" s="4"/>
       <c r="AG32" s="13"/>
       <c r="AH32" s="12"/>
@@ -2790,17 +2790,17 @@
       <c r="AS32" s="13"/>
     </row>
     <row r="33" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="44"/>
-      <c r="B33" s="38" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="38">
         <v>6</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="38">
         <v>5</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="41">
         <f t="shared" ref="E33" si="14">D33-C33</f>
         <v>-1</v>
       </c>
@@ -2846,11 +2846,11 @@
       <c r="AS33" s="13"/>
     </row>
     <row r="34" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="44"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="43"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="12"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2893,15 +2893,15 @@
       <c r="AS34" s="13"/>
     </row>
     <row r="35" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="44"/>
-      <c r="B35" s="38" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35" s="38">
         <v>6</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="42">
+      <c r="D35" s="38"/>
+      <c r="E35" s="41">
         <f t="shared" ref="E35" si="15">D35-C35</f>
         <v>-6</v>
       </c>
@@ -2946,11 +2946,11 @@
       <c r="AS35" s="13"/>
     </row>
     <row r="36" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="44"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="43"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="42"/>
       <c r="F36" s="12"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -2993,15 +2993,15 @@
       <c r="AS36" s="13"/>
     </row>
     <row r="37" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="44"/>
-      <c r="B37" s="38" t="s">
+      <c r="A37" s="40"/>
+      <c r="B37" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C37" s="38">
         <v>1</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="42">
+      <c r="D37" s="38"/>
+      <c r="E37" s="41">
         <f t="shared" ref="E37" si="16">D37-C37</f>
         <v>-1</v>
       </c>
@@ -3045,11 +3045,11 @@
       <c r="AS37" s="13"/>
     </row>
     <row r="38" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="44"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="43"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="42"/>
       <c r="F38" s="12"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -3092,15 +3092,15 @@
       <c r="AS38" s="13"/>
     </row>
     <row r="39" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="44"/>
-      <c r="B39" s="38" t="s">
+      <c r="A39" s="40"/>
+      <c r="B39" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="38">
         <v>10</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="42">
+      <c r="D39" s="38"/>
+      <c r="E39" s="41">
         <f t="shared" ref="E39" si="17">D39-C39</f>
         <v>-10</v>
       </c>
@@ -3146,11 +3146,11 @@
       <c r="AS39" s="20"/>
     </row>
     <row r="40" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="44"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="43"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="42"/>
       <c r="F40" s="12"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3193,17 +3193,17 @@
       <c r="AS40" s="13"/>
     </row>
     <row r="41" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="38">
         <v>2</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="42">
+      <c r="D41" s="38"/>
+      <c r="E41" s="41">
         <f t="shared" ref="E41" si="18">D41-C41</f>
         <v>-2</v>
       </c>
@@ -3247,11 +3247,11 @@
       <c r="AS41" s="13"/>
     </row>
     <row r="42" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="44"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="43"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="42"/>
       <c r="F42" s="12"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3294,15 +3294,15 @@
       <c r="AS42" s="13"/>
     </row>
     <row r="43" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="44"/>
-      <c r="B43" s="38" t="s">
+      <c r="A43" s="40"/>
+      <c r="B43" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="38">
         <v>1</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="42">
+      <c r="D43" s="38"/>
+      <c r="E43" s="41">
         <f t="shared" ref="E43" si="19">D43-C43</f>
         <v>-1</v>
       </c>
@@ -3348,11 +3348,11 @@
       <c r="AS43" s="21"/>
     </row>
     <row r="44" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="41"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="43"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="42"/>
       <c r="F44" s="12"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3395,17 +3395,17 @@
       <c r="AS44" s="13"/>
     </row>
     <row r="45" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C45" s="38">
         <v>1</v>
       </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="42">
+      <c r="D45" s="38"/>
+      <c r="E45" s="41">
         <f t="shared" ref="E45" si="20">D45-C45</f>
         <v>-1</v>
       </c>
@@ -3449,11 +3449,11 @@
       <c r="AS45" s="13"/>
     </row>
     <row r="46" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="44"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="43"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="42"/>
       <c r="F46" s="12"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -3496,15 +3496,15 @@
       <c r="AS46" s="13"/>
     </row>
     <row r="47" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="44"/>
-      <c r="B47" s="38" t="s">
+      <c r="A47" s="40"/>
+      <c r="B47" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="40">
+      <c r="C47" s="38">
         <v>1</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="42">
+      <c r="D47" s="38"/>
+      <c r="E47" s="41">
         <f t="shared" ref="E47" si="21">D47-C47</f>
         <v>-1</v>
       </c>
@@ -3550,11 +3550,11 @@
       <c r="AS47" s="20"/>
     </row>
     <row r="48" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="44"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="43"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="42"/>
       <c r="F48" s="12"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -3597,15 +3597,15 @@
       <c r="AS48" s="13"/>
     </row>
     <row r="49" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="44"/>
-      <c r="B49" s="38" t="s">
+      <c r="A49" s="40"/>
+      <c r="B49" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="40">
+      <c r="C49" s="38">
         <v>5</v>
       </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="42">
+      <c r="D49" s="38"/>
+      <c r="E49" s="41">
         <f t="shared" ref="E49" si="22">D49-C49</f>
         <v>-5</v>
       </c>
@@ -3651,11 +3651,11 @@
       <c r="AS49" s="20"/>
     </row>
     <row r="50" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="44"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="43"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="42"/>
       <c r="F50" s="12"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3698,15 +3698,15 @@
       <c r="AS50" s="13"/>
     </row>
     <row r="51" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="44"/>
-      <c r="B51" s="55" t="s">
+      <c r="A51" s="40"/>
+      <c r="B51" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="38">
         <v>1</v>
       </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="42">
+      <c r="D51" s="38"/>
+      <c r="E51" s="41">
         <f t="shared" ref="E51" si="23">D51-C51</f>
         <v>-1</v>
       </c>
@@ -3752,11 +3752,11 @@
       <c r="AS51" s="20"/>
     </row>
     <row r="52" spans="1:45" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="41"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="43"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="42"/>
       <c r="F52" s="14"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -4641,6 +4641,113 @@
     </row>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A23:A40"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="E31:E32"/>
@@ -4665,113 +4772,6 @@
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A23:A40"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/07_Tag 07/Soll-Ist-Zeitplan_0.7_Cvetkovic_David.xlsx
+++ b/07_Tag 07/Soll-Ist-Zeitplan_0.7_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\07_Tag 07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3279A60A-4E71-4080-A23D-B9BD412B245B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B13EAE5-FC04-4720-9684-635B4F6019F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,12 +729,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -743,25 +746,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -781,6 +766,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:AW70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T56" sqref="T56"/>
+      <selection activeCell="AI59" sqref="AI59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -1083,163 +1083,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="50" t="s">
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="50" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="50" t="s">
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="50" t="s">
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="50" t="s">
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="50" t="s">
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="50" t="s">
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="50" t="s">
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="52"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="47"/>
     </row>
     <row r="2" spans="1:49" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="53">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="48">
         <v>45341</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="53">
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="48">
         <v>45342</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="53">
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="48">
         <v>45343</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="53">
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="48">
         <v>45344</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="53">
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="48">
         <v>45345</v>
       </c>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="53">
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="48">
         <v>45348</v>
       </c>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="53">
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="48">
         <v>45349</v>
       </c>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="53">
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="48">
         <v>45350</v>
       </c>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="53">
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="48">
         <v>45351</v>
       </c>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="53">
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="48">
         <v>45352</v>
       </c>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="55"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="50"/>
     </row>
     <row r="3" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="40">
         <v>1</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="40">
         <v>1</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="42">
         <f>D3-C3</f>
         <v>0</v>
       </c>
@@ -1285,11 +1285,11 @@
       <c r="AS3" s="13"/>
     </row>
     <row r="4" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="40"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="42"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="18"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1338,17 +1338,17 @@
       </c>
     </row>
     <row r="5" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="40">
         <v>2</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="40">
         <v>2</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <f t="shared" ref="E5" si="0">D5-C5</f>
         <v>0</v>
       </c>
@@ -1398,11 +1398,11 @@
       </c>
     </row>
     <row r="6" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="40"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="42"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="12"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
@@ -1449,17 +1449,17 @@
       </c>
     </row>
     <row r="7" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="40">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="40">
         <v>1</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="42">
         <f t="shared" ref="E7" si="1">D7-C7</f>
         <v>0</v>
       </c>
@@ -1509,11 +1509,11 @@
       </c>
     </row>
     <row r="8" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="39"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="42"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="12"/>
       <c r="G8" s="3"/>
       <c r="H8" s="5"/>
@@ -1556,19 +1556,19 @@
       <c r="AS8" s="13"/>
     </row>
     <row r="9" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="40">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="40">
         <v>1</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="42">
         <f t="shared" ref="E9" si="2">D9-C9</f>
         <v>0</v>
       </c>
@@ -1614,11 +1614,11 @@
       <c r="AS9" s="13"/>
     </row>
     <row r="10" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="40"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="42"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="12"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1661,17 +1661,17 @@
       <c r="AS10" s="13"/>
     </row>
     <row r="11" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="40">
         <v>2</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="40">
         <v>2</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="42">
         <f t="shared" ref="E11" si="3">D11-C11</f>
         <v>0</v>
       </c>
@@ -1717,11 +1717,11 @@
       <c r="AS11" s="13"/>
     </row>
     <row r="12" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="40"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="42"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="12"/>
       <c r="G12" s="4"/>
       <c r="H12" s="3"/>
@@ -1764,17 +1764,17 @@
       <c r="AS12" s="13"/>
     </row>
     <row r="13" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="40"/>
-      <c r="B13" s="43" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="40">
         <v>2</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="40">
         <v>1</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="42">
         <f t="shared" ref="E13" si="4">D13-C13</f>
         <v>-1</v>
       </c>
@@ -1820,11 +1820,11 @@
       <c r="AS13" s="13"/>
     </row>
     <row r="14" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="39"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="42"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="12"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1867,19 +1867,19 @@
       <c r="AS14" s="13"/>
     </row>
     <row r="15" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="40">
         <v>1</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="40">
         <v>1</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="42">
         <f t="shared" ref="E15" si="5">D15-C15</f>
         <v>0</v>
       </c>
@@ -1925,11 +1925,11 @@
       <c r="AS15" s="13"/>
     </row>
     <row r="16" spans="1:49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="40"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="42"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="12"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1972,17 +1972,17 @@
       <c r="AS16" s="13"/>
     </row>
     <row r="17" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="40"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="40">
         <v>4</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="40">
         <v>3</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="42">
         <f t="shared" ref="E17" si="6">D17-C17</f>
         <v>-1</v>
       </c>
@@ -2028,11 +2028,11 @@
       <c r="AS17" s="13"/>
     </row>
     <row r="18" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="40"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="42"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="12"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2075,17 +2075,17 @@
       <c r="AS18" s="13"/>
     </row>
     <row r="19" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="40"/>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="40">
         <v>1</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="40">
         <v>1</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="42">
         <f t="shared" ref="E19" si="7">D19-C19</f>
         <v>0</v>
       </c>
@@ -2130,11 +2130,11 @@
       <c r="AS19" s="13"/>
     </row>
     <row r="20" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="40"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="42"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="12"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2177,17 +2177,17 @@
       <c r="AS20" s="13"/>
     </row>
     <row r="21" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="40"/>
-      <c r="B21" s="43" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="40">
         <v>1</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="40">
         <v>1</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="42">
         <f t="shared" ref="E21" si="8">D21-C21</f>
         <v>0</v>
       </c>
@@ -2233,11 +2233,11 @@
       <c r="AS21" s="13"/>
     </row>
     <row r="22" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="39"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="42"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="12"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -2280,19 +2280,19 @@
       <c r="AS22" s="13"/>
     </row>
     <row r="23" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="40">
         <v>4</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="40">
         <v>5</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="42">
         <f t="shared" ref="E23" si="9">D23-C23</f>
         <v>1</v>
       </c>
@@ -2338,11 +2338,11 @@
       <c r="AS23" s="13"/>
     </row>
     <row r="24" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="40"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="42"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="12"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2385,17 +2385,17 @@
       <c r="AS24" s="13"/>
     </row>
     <row r="25" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="40"/>
-      <c r="B25" s="43" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="40">
         <v>8</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="40">
         <v>10</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="42">
         <f t="shared" ref="E25" si="10">D25-C25</f>
         <v>2</v>
       </c>
@@ -2441,11 +2441,11 @@
       <c r="AS25" s="13"/>
     </row>
     <row r="26" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="40"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="42"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="12"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2488,15 +2488,15 @@
       <c r="AS26" s="13"/>
     </row>
     <row r="27" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="40"/>
-      <c r="B27" s="43" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="40">
         <v>2</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="41">
+      <c r="D27" s="40"/>
+      <c r="E27" s="42">
         <f t="shared" ref="E27" si="11">D27-C27</f>
         <v>-2</v>
       </c>
@@ -2541,11 +2541,11 @@
       <c r="AS27" s="13"/>
     </row>
     <row r="28" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="40"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="42"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="12"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2588,15 +2588,15 @@
       <c r="AS28" s="13"/>
     </row>
     <row r="29" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="40"/>
-      <c r="B29" s="43" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="40">
         <v>4</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="41">
+      <c r="D29" s="40"/>
+      <c r="E29" s="42">
         <f t="shared" ref="E29" si="12">D29-C29</f>
         <v>-4</v>
       </c>
@@ -2642,11 +2642,11 @@
       <c r="AS29" s="21"/>
     </row>
     <row r="30" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="40"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="42"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="12"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -2671,7 +2671,7 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="13"/>
-      <c r="AD30" s="12"/>
+      <c r="AD30" s="18"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="13"/>
@@ -2689,15 +2689,15 @@
       <c r="AS30" s="13"/>
     </row>
     <row r="31" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="40"/>
-      <c r="B31" s="43" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="40">
         <v>12</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="41">
+      <c r="D31" s="40"/>
+      <c r="E31" s="42">
         <f t="shared" ref="E31" si="13">D31-C31</f>
         <v>-12</v>
       </c>
@@ -2743,11 +2743,11 @@
       <c r="AS31" s="13"/>
     </row>
     <row r="32" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="40"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="42"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="12"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2774,7 +2774,7 @@
       <c r="AC32" s="13"/>
       <c r="AD32" s="12"/>
       <c r="AE32" s="3"/>
-      <c r="AF32" s="4"/>
+      <c r="AF32" s="3"/>
       <c r="AG32" s="13"/>
       <c r="AH32" s="12"/>
       <c r="AI32" s="4"/>
@@ -2790,17 +2790,17 @@
       <c r="AS32" s="13"/>
     </row>
     <row r="33" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="40"/>
-      <c r="B33" s="43" t="s">
+      <c r="A33" s="44"/>
+      <c r="B33" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="40">
         <v>6</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="40">
         <v>5</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="42">
         <f t="shared" ref="E33" si="14">D33-C33</f>
         <v>-1</v>
       </c>
@@ -2846,11 +2846,11 @@
       <c r="AS33" s="13"/>
     </row>
     <row r="34" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="40"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="42"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="12"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2893,15 +2893,15 @@
       <c r="AS34" s="13"/>
     </row>
     <row r="35" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="40"/>
-      <c r="B35" s="43" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="40">
         <v>6</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="41">
+      <c r="D35" s="40"/>
+      <c r="E35" s="42">
         <f t="shared" ref="E35" si="15">D35-C35</f>
         <v>-6</v>
       </c>
@@ -2946,11 +2946,11 @@
       <c r="AS35" s="13"/>
     </row>
     <row r="36" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="40"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="42"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="12"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -2978,7 +2978,7 @@
       <c r="AD36" s="12"/>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
-      <c r="AG36" s="13"/>
+      <c r="AG36" s="17"/>
       <c r="AH36" s="12"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
@@ -2993,15 +2993,15 @@
       <c r="AS36" s="13"/>
     </row>
     <row r="37" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="40"/>
-      <c r="B37" s="43" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="40">
         <v>1</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="41">
+      <c r="D37" s="40"/>
+      <c r="E37" s="42">
         <f t="shared" ref="E37" si="16">D37-C37</f>
         <v>-1</v>
       </c>
@@ -3045,11 +3045,11 @@
       <c r="AS37" s="13"/>
     </row>
     <row r="38" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="40"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="42"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="12"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -3092,15 +3092,15 @@
       <c r="AS38" s="13"/>
     </row>
     <row r="39" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="40"/>
-      <c r="B39" s="43" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="40">
         <v>10</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="41">
+      <c r="D39" s="40"/>
+      <c r="E39" s="42">
         <f t="shared" ref="E39" si="17">D39-C39</f>
         <v>-10</v>
       </c>
@@ -3146,11 +3146,11 @@
       <c r="AS39" s="20"/>
     </row>
     <row r="40" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="40"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="42"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="43"/>
       <c r="F40" s="12"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3178,7 +3178,7 @@
       <c r="AD40" s="12"/>
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
-      <c r="AG40" s="13"/>
+      <c r="AG40" s="17"/>
       <c r="AH40" s="12"/>
       <c r="AI40" s="4"/>
       <c r="AJ40" s="4"/>
@@ -3193,17 +3193,17 @@
       <c r="AS40" s="13"/>
     </row>
     <row r="41" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="40">
         <v>2</v>
       </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="41">
+      <c r="D41" s="40"/>
+      <c r="E41" s="42">
         <f t="shared" ref="E41" si="18">D41-C41</f>
         <v>-2</v>
       </c>
@@ -3247,11 +3247,11 @@
       <c r="AS41" s="13"/>
     </row>
     <row r="42" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="40"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="42"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="43"/>
       <c r="F42" s="12"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3294,15 +3294,15 @@
       <c r="AS42" s="13"/>
     </row>
     <row r="43" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="40"/>
-      <c r="B43" s="43" t="s">
+      <c r="A43" s="44"/>
+      <c r="B43" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="40">
         <v>1</v>
       </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="41">
+      <c r="D43" s="40"/>
+      <c r="E43" s="42">
         <f t="shared" ref="E43" si="19">D43-C43</f>
         <v>-1</v>
       </c>
@@ -3348,11 +3348,11 @@
       <c r="AS43" s="21"/>
     </row>
     <row r="44" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="39"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="42"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="12"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3395,17 +3395,17 @@
       <c r="AS44" s="13"/>
     </row>
     <row r="45" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="40">
         <v>1</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="41">
+      <c r="D45" s="40"/>
+      <c r="E45" s="42">
         <f t="shared" ref="E45" si="20">D45-C45</f>
         <v>-1</v>
       </c>
@@ -3449,11 +3449,11 @@
       <c r="AS45" s="13"/>
     </row>
     <row r="46" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="40"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="42"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="43"/>
       <c r="F46" s="12"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -3496,15 +3496,15 @@
       <c r="AS46" s="13"/>
     </row>
     <row r="47" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="40"/>
-      <c r="B47" s="43" t="s">
+      <c r="A47" s="44"/>
+      <c r="B47" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="40">
         <v>1</v>
       </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="41">
+      <c r="D47" s="40"/>
+      <c r="E47" s="42">
         <f t="shared" ref="E47" si="21">D47-C47</f>
         <v>-1</v>
       </c>
@@ -3550,11 +3550,11 @@
       <c r="AS47" s="20"/>
     </row>
     <row r="48" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="40"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="42"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="43"/>
       <c r="F48" s="12"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -3597,15 +3597,15 @@
       <c r="AS48" s="13"/>
     </row>
     <row r="49" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="40"/>
-      <c r="B49" s="43" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="38">
+      <c r="C49" s="40">
         <v>5</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="41">
+      <c r="D49" s="40"/>
+      <c r="E49" s="42">
         <f t="shared" ref="E49" si="22">D49-C49</f>
         <v>-5</v>
       </c>
@@ -3651,11 +3651,11 @@
       <c r="AS49" s="20"/>
     </row>
     <row r="50" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="40"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="42"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="43"/>
       <c r="F50" s="12"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3683,7 +3683,7 @@
       <c r="AD50" s="12"/>
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
-      <c r="AG50" s="13"/>
+      <c r="AG50" s="17"/>
       <c r="AH50" s="12"/>
       <c r="AI50" s="4"/>
       <c r="AJ50" s="4"/>
@@ -3698,15 +3698,15 @@
       <c r="AS50" s="13"/>
     </row>
     <row r="51" spans="1:45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="40"/>
-      <c r="B51" s="47" t="s">
+      <c r="A51" s="44"/>
+      <c r="B51" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="40">
         <v>1</v>
       </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="41">
+      <c r="D51" s="40"/>
+      <c r="E51" s="42">
         <f t="shared" ref="E51" si="23">D51-C51</f>
         <v>-1</v>
       </c>
@@ -3752,11 +3752,11 @@
       <c r="AS51" s="20"/>
     </row>
     <row r="52" spans="1:45" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="39"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="42"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="43"/>
       <c r="F52" s="14"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -4641,19 +4641,100 @@
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A23:A40"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="V2:Y2"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
@@ -4678,100 +4759,19 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A23:A40"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
